--- a/dcomtestcasegeneration/Template/Template.xlsx
+++ b/dcomtestcasegeneration/Template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA287DFD-B7EC-4193-BB92-02057D061B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77897A4-8948-427F-98B0-0B2C5FFDD7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="3360" windowWidth="21600" windowHeight="13185" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="3360" windowWidth="21600" windowHeight="13185" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -10782,8 +10782,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15356,7 +15356,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>

--- a/dcomtestcasegeneration/Template/Template.xlsx
+++ b/dcomtestcasegeneration/Template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77897A4-8948-427F-98B0-0B2C5FFDD7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B581DDFE-AF14-4E5E-931D-B6BAE2C7AF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="3360" windowWidth="21600" windowHeight="13185" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="193">
   <si>
     <t>Sub_function</t>
   </si>
@@ -645,13 +645,7 @@
     <t>Template Path</t>
   </si>
   <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database\Database.xlsx</t>
-  </si>
-  <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template</t>
-  </si>
-  <si>
-    <t>D:\HuyNA_repo\Template\dcomtestcasegeneration\Template.xlsx</t>
+    <t>Database Directory</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1246,6 +1240,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10782,8 +10782,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:B62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11066,9 +11066,7 @@
       <c r="A42" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>192</v>
-      </c>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
@@ -11086,17 +11084,19 @@
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>193</v>
-      </c>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>194</v>
-      </c>
+      <c r="B46" s="104"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="104"/>
     </row>
     <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -11110,97 +11110,73 @@
       <c r="A51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B62" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -11247,36 +11223,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -12306,36 +12282,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
       <c r="D1" s="97"/>
       <c r="E1" s="66"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104" t="s">
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
       <c r="Y1" s="67"/>
       <c r="Z1" s="67"/>
     </row>
@@ -13341,36 +13317,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -14363,36 +14339,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -15388,36 +15364,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -16530,36 +16506,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -17660,36 +17636,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -18582,36 +18558,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -19662,36 +19638,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="75"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="76"/>
       <c r="Z1" s="77"/>
     </row>
@@ -21018,36 +20994,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -22046,36 +22022,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
@@ -23040,36 +23016,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103" t="s">
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>

--- a/dcomtestcasegeneration/Template/Template.xlsx
+++ b/dcomtestcasegeneration/Template/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BOSCH_WORK\DCOM_TestcaseTool\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B581DDFE-AF14-4E5E-931D-B6BAE2C7AF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D542BD9-ACFC-454B-B153-C481FFA2FE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="192">
   <si>
     <t>Sub_function</t>
   </si>
@@ -598,9 +596,6 @@
   </si>
   <si>
     <t>Testcase Directory</t>
-  </si>
-  <si>
-    <t>Local</t>
   </si>
   <si>
     <t>Data Path Information</t>
@@ -10782,21 +10777,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B47" sqref="B41:B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -10810,7 +10805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -10824,7 +10819,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>49</v>
       </c>
@@ -10838,7 +10833,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
@@ -10852,7 +10847,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -10866,7 +10861,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -10880,7 +10875,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -10891,7 +10886,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
@@ -10902,7 +10897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -10913,7 +10908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
@@ -10924,13 +10919,13 @@
         <v>590209</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
@@ -10940,7 +10935,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>97</v>
       </c>
@@ -10950,7 +10945,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>95</v>
       </c>
@@ -10960,7 +10955,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>107</v>
       </c>
@@ -10970,45 +10965,45 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>169</v>
@@ -11016,7 +11011,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>170</v>
       </c>
@@ -11024,7 +11019,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>171</v>
       </c>
@@ -11032,7 +11027,7 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>172</v>
       </c>
@@ -11040,141 +11035,139 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>173</v>
       </c>
       <c r="B34" s="9"/>
     </row>
-    <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="B44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="104"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="B46" s="104"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="103" t="s">
-        <v>192</v>
-      </c>
       <c r="B47" s="104"/>
     </row>
-    <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="8"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B58" s="8"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="B59" s="8"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B60" s="8"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="B61" s="8"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="B62" s="8"/>
     </row>
@@ -11198,31 +11191,31 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -11256,7 +11249,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -11332,7 +11325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -11402,7 +11395,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -11448,7 +11441,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
@@ -11486,7 +11479,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
@@ -11526,7 +11519,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
@@ -11568,7 +11561,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
@@ -11612,7 +11605,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
@@ -11658,7 +11651,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>14</v>
       </c>
@@ -11706,7 +11699,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
@@ -11756,7 +11749,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
@@ -11808,7 +11801,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
@@ -11862,7 +11855,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
@@ -11918,7 +11911,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -11972,7 +11965,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -12028,7 +12021,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -12056,7 +12049,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -12067,7 +12060,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -12078,7 +12071,7 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -12088,7 +12081,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="21"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -12098,7 +12091,7 @@
       <c r="H21" s="37"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -12108,7 +12101,7 @@
       <c r="H22" s="37"/>
       <c r="I22" s="21"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -12118,45 +12111,45 @@
       <c r="H23" s="37"/>
       <c r="I23" s="21"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -12164,7 +12157,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -12175,7 +12168,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -12186,7 +12179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -12197,7 +12190,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -12208,7 +12201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -12216,7 +12209,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -12257,31 +12250,31 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="42" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="106" t="s">
         <v>29</v>
       </c>
@@ -12315,7 +12308,7 @@
       <c r="Y1" s="67"/>
       <c r="Z1" s="67"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
@@ -12391,7 +12384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -12465,7 +12458,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -12507,7 +12500,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -12541,7 +12534,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -12577,7 +12570,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -12615,7 +12608,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="70"/>
       <c r="C8" s="21"/>
@@ -12655,7 +12648,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -12697,7 +12690,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -12741,7 +12734,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -12787,7 +12780,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -12835,7 +12828,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -12885,7 +12878,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -12937,7 +12930,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -12991,7 +12984,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="71"/>
@@ -13047,7 +13040,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -13075,7 +13068,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -13102,7 +13095,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -13129,69 +13122,69 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I34" s="72"/>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I37" s="102"/>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I38" s="102"/>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -13199,7 +13192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -13210,7 +13203,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -13221,7 +13214,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -13232,7 +13225,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -13243,7 +13236,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -13251,7 +13244,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="101"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -13292,31 +13285,31 @@
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -13350,7 +13343,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -13426,7 +13419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -13494,7 +13487,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -13538,7 +13531,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -13572,7 +13565,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -13608,7 +13601,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -13646,7 +13639,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -13686,7 +13679,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -13728,7 +13721,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -13772,7 +13765,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -13818,7 +13811,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -13866,7 +13859,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -13916,7 +13909,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -13968,7 +13961,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -14022,7 +14015,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -14078,7 +14071,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -14106,7 +14099,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -14133,7 +14126,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -14160,60 +14153,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -14221,7 +14214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -14232,7 +14225,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -14243,7 +14236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -14254,7 +14247,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -14265,7 +14258,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -14273,7 +14266,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -14314,31 +14307,31 @@
       <selection activeCell="N32" sqref="M32:N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -14372,7 +14365,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -14448,7 +14441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -14518,7 +14511,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -14564,7 +14557,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
@@ -14602,7 +14595,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
@@ -14642,7 +14635,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>12</v>
       </c>
@@ -14684,7 +14677,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
@@ -14728,7 +14721,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -14770,7 +14763,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -14814,7 +14807,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -14860,7 +14853,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -14908,7 +14901,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -14958,7 +14951,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -15010,7 +15003,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -15064,7 +15057,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -15120,7 +15113,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -15148,7 +15141,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -15159,7 +15152,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -15170,60 +15163,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -15231,7 +15224,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -15242,7 +15235,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -15253,7 +15246,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -15264,7 +15257,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -15275,7 +15268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -15283,7 +15276,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -15321,7 +15314,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15332,38 +15325,38 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="21" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="14.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="21" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -15397,7 +15390,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -15473,7 +15466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>12</v>
       </c>
@@ -15547,7 +15540,7 @@
       </c>
       <c r="Z3" s="56"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>13</v>
       </c>
@@ -15621,7 +15614,7 @@
       </c>
       <c r="Z4" s="59"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>14</v>
       </c>
@@ -15695,7 +15688,7 @@
       </c>
       <c r="Z5" s="59"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -15761,7 +15754,7 @@
       </c>
       <c r="Z6" s="59"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="53"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -15827,7 +15820,7 @@
       </c>
       <c r="Z7" s="59"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="53"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -15885,7 +15878,7 @@
       </c>
       <c r="Z8" s="59"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -15943,7 +15936,7 @@
       </c>
       <c r="Z9" s="59"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -16001,7 +15994,7 @@
       </c>
       <c r="Z10" s="59"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -16059,7 +16052,7 @@
       </c>
       <c r="Z11" s="59"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -16117,7 +16110,7 @@
       </c>
       <c r="Z12" s="59"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="25"/>
@@ -16175,7 +16168,7 @@
       </c>
       <c r="Z13" s="59"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -16233,7 +16226,7 @@
       </c>
       <c r="Z14" s="59"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -16291,7 +16284,7 @@
       </c>
       <c r="Z15" s="59"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="25"/>
       <c r="C16" s="61"/>
@@ -16349,7 +16342,7 @@
       </c>
       <c r="Z16" s="59"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="61"/>
       <c r="B17" s="61"/>
       <c r="C17" s="63"/>
@@ -16376,11 +16369,11 @@
       <c r="Y17" s="64"/>
       <c r="Z17" s="59"/>
     </row>
-    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:5" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -16388,7 +16381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -16399,7 +16392,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -16410,7 +16403,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -16421,7 +16414,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -16432,7 +16425,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -16440,7 +16433,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -16482,30 +16475,30 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
     <col min="4" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -16539,7 +16532,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -16615,7 +16608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -16689,7 +16682,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -16757,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -16817,7 +16810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -16877,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -16937,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -16997,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -17057,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -17117,7 +17110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -17177,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -17237,7 +17230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -17297,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -17357,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -17417,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -17477,7 +17470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -17505,12 +17498,12 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="I25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -17518,7 +17511,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -17529,7 +17522,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -17540,7 +17533,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -17551,7 +17544,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -17562,7 +17555,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -17570,7 +17563,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -17611,31 +17604,31 @@
       <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -17669,7 +17662,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -17745,7 +17738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>91</v>
       </c>
@@ -17819,7 +17812,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -17861,7 +17854,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -17895,7 +17888,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -17931,7 +17924,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -17969,7 +17962,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -18009,7 +18002,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -18051,7 +18044,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -18095,7 +18088,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -18141,7 +18134,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -18189,7 +18182,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -18239,7 +18232,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -18291,7 +18284,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -18345,7 +18338,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -18401,7 +18394,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -18429,10 +18422,10 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -18440,7 +18433,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -18451,7 +18444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -18462,7 +18455,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -18473,7 +18466,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -18484,7 +18477,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -18492,7 +18485,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -18533,31 +18526,31 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -18591,7 +18584,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -18667,7 +18660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -18737,7 +18730,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -18783,7 +18776,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>35</v>
       </c>
@@ -18823,7 +18816,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>35</v>
       </c>
@@ -18865,7 +18858,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
@@ -18909,7 +18902,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>71</v>
       </c>
@@ -18955,7 +18948,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>71</v>
       </c>
@@ -19003,7 +18996,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>71</v>
       </c>
@@ -19053,7 +19046,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>36</v>
       </c>
@@ -19105,7 +19098,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>36</v>
       </c>
@@ -19159,7 +19152,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>36</v>
       </c>
@@ -19215,7 +19208,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
@@ -19273,7 +19266,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>72</v>
       </c>
@@ -19333,7 +19326,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>72</v>
       </c>
@@ -19395,7 +19388,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>72</v>
       </c>
@@ -19429,7 +19422,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>72</v>
       </c>
@@ -19446,7 +19439,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>73</v>
       </c>
@@ -19459,60 +19452,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -19520,7 +19513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -19531,7 +19524,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -19542,7 +19535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -19553,7 +19546,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -19564,7 +19557,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -19572,7 +19565,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -19613,31 +19606,31 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="78" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="78" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="78" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="78" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="78" customWidth="1"/>
     <col min="5" max="5" width="9" style="78" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="78" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="78" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="78" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="78" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="78" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="78" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="78" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="78" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="78" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="78" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="78" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="78" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="78" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="78" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="78"/>
+    <col min="6" max="6" width="17.6640625" style="78" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="78" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="78" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="78" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="78" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="78" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="78" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="78" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="78" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="78" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="78" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="78" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="78" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="78" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -19671,7 +19664,7 @@
       <c r="Y1" s="76"/>
       <c r="Z1" s="77"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>109</v>
       </c>
@@ -19747,7 +19740,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
         <v>152</v>
       </c>
@@ -19756,7 +19749,7 @@
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
@@ -19819,7 +19812,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>110</v>
       </c>
@@ -19867,7 +19860,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>111</v>
       </c>
@@ -19907,7 +19900,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>111</v>
       </c>
@@ -19949,7 +19942,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>111</v>
       </c>
@@ -19993,7 +19986,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="82" t="s">
         <v>111</v>
       </c>
@@ -20039,7 +20032,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="82" t="s">
         <v>111</v>
       </c>
@@ -20087,7 +20080,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="82" t="s">
         <v>111</v>
       </c>
@@ -20137,7 +20130,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="82" t="s">
         <v>111</v>
       </c>
@@ -20189,7 +20182,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="82" t="s">
         <v>111</v>
       </c>
@@ -20243,7 +20236,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
         <v>111</v>
       </c>
@@ -20299,7 +20292,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="82" t="s">
         <v>111</v>
       </c>
@@ -20357,7 +20350,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>111</v>
       </c>
@@ -20417,7 +20410,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="82" t="s">
         <v>111</v>
       </c>
@@ -20479,7 +20472,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="82" t="s">
         <v>111</v>
       </c>
@@ -20513,7 +20506,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="82" t="s">
         <v>111</v>
       </c>
@@ -20530,7 +20523,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="82" t="s">
         <v>111</v>
       </c>
@@ -20547,7 +20540,7 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="82" t="s">
         <v>112</v>
       </c>
@@ -20559,7 +20552,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="82" t="s">
         <v>113</v>
       </c>
@@ -20571,7 +20564,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="82" t="s">
         <v>114</v>
       </c>
@@ -20583,7 +20576,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="82" t="s">
         <v>115</v>
       </c>
@@ -20595,7 +20588,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="82" t="s">
         <v>116</v>
       </c>
@@ -20607,7 +20600,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="82" t="s">
         <v>117</v>
       </c>
@@ -20619,7 +20612,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="82" t="s">
         <v>118</v>
       </c>
@@ -20631,7 +20624,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="84" t="s">
         <v>119</v>
       </c>
@@ -20643,7 +20636,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="82" t="s">
         <v>120</v>
       </c>
@@ -20655,7 +20648,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="82" t="s">
         <v>121</v>
       </c>
@@ -20667,7 +20660,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="82" t="s">
         <v>122</v>
       </c>
@@ -20679,7 +20672,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
         <v>123</v>
       </c>
@@ -20691,7 +20684,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="85" t="s">
         <v>124</v>
       </c>
@@ -20703,7 +20696,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="85" t="s">
         <v>125</v>
       </c>
@@ -20715,7 +20708,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="96" t="s">
         <v>126</v>
       </c>
@@ -20727,7 +20720,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="96" t="s">
         <v>127</v>
       </c>
@@ -20739,7 +20732,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="96" t="s">
         <v>128</v>
       </c>
@@ -20751,7 +20744,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="96" t="s">
         <v>129</v>
       </c>
@@ -20763,7 +20756,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="96" t="s">
         <v>130</v>
       </c>
@@ -20775,100 +20768,100 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="52"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="40"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="40"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="40"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="40"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="40"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="40"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="40"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="40"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="40"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="40"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="40"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="40"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="40"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
       <c r="D53" s="86"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E64" s="95"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="87" t="s">
         <v>65</v>
       </c>
@@ -20876,7 +20869,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="89" t="s">
         <v>86</v>
       </c>
@@ -20887,7 +20880,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="90" t="s">
         <v>87</v>
       </c>
@@ -20898,7 +20891,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="90" t="s">
         <v>88</v>
       </c>
@@ -20909,7 +20902,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="92" t="s">
         <v>89</v>
       </c>
@@ -20920,7 +20913,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="94" t="s">
         <v>66</v>
       </c>
@@ -20928,7 +20921,7 @@
       <c r="C110" s="94"/>
       <c r="D110" s="94"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="78" t="s">
         <v>7</v>
       </c>
@@ -20969,31 +20962,31 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -21027,7 +21020,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -21103,7 +21096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
         <v>100</v>
@@ -21173,7 +21166,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
         <v>76</v>
@@ -21219,7 +21212,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
         <v>100</v>
@@ -21257,7 +21250,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
         <v>102</v>
@@ -21297,7 +21290,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
         <v>103</v>
@@ -21339,7 +21332,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
         <v>104</v>
@@ -21383,7 +21376,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="20" t="s">
         <v>104</v>
@@ -21429,7 +21422,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
         <v>105</v>
@@ -21477,7 +21470,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -21523,7 +21516,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -21571,7 +21564,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -21621,7 +21614,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -21673,7 +21666,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -21727,7 +21720,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -21783,7 +21776,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -21811,7 +21804,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -21822,7 +21815,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -21833,70 +21826,70 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="42"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="42"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="42"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="42"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="42"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="42"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="42"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="42"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -21904,7 +21897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -21915,7 +21908,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -21926,7 +21919,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -21937,7 +21930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -21948,7 +21941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -21956,7 +21949,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -21997,31 +21990,31 @@
       <selection activeCell="A100" sqref="A100:D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -22055,7 +22048,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -22131,7 +22124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
@@ -22201,7 +22194,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>13</v>
       </c>
@@ -22247,7 +22240,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -22281,7 +22274,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -22317,7 +22310,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -22355,7 +22348,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -22395,7 +22388,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -22437,7 +22430,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -22481,7 +22474,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -22527,7 +22520,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -22575,7 +22568,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -22625,7 +22618,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -22677,7 +22670,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -22731,7 +22724,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -22787,7 +22780,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -22815,7 +22808,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -22826,7 +22819,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -22837,60 +22830,60 @@
       <c r="H19" s="37"/>
       <c r="I19" s="21"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -22898,7 +22891,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -22909,7 +22902,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -22920,7 +22913,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -22931,7 +22924,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -22942,7 +22935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -22950,7 +22943,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -22991,31 +22984,31 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="2" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="2" customWidth="1"/>
-    <col min="18" max="19" width="5.140625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="2" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="5.109375" style="2" customWidth="1"/>
+    <col min="20" max="24" width="4.88671875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="8.6640625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>29</v>
       </c>
@@ -23049,7 +23042,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -23125,7 +23118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -23191,7 +23184,7 @@
       </c>
       <c r="Z3" s="29"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -23233,7 +23226,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -23267,7 +23260,7 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="34"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -23303,7 +23296,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="34"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -23341,7 +23334,7 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="34"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -23381,7 +23374,7 @@
       <c r="Y8" s="21"/>
       <c r="Z8" s="34"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -23423,7 +23416,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="34"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -23467,7 +23460,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="34"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -23513,7 +23506,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="34"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -23561,7 +23554,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="34"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
@@ -23611,7 +23604,7 @@
       <c r="Y13" s="21"/>
       <c r="Z13" s="34"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -23663,7 +23656,7 @@
       <c r="Y14" s="21"/>
       <c r="Z14" s="34"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -23717,7 +23710,7 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="34"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="21"/>
       <c r="C16" s="37"/>
@@ -23773,7 +23766,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="39"/>
@@ -23801,7 +23794,7 @@
       <c r="Y17" s="37"/>
       <c r="Z17" s="34"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -23828,7 +23821,7 @@
       <c r="Y18" s="37"/>
       <c r="Z18" s="34"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -23855,60 +23848,60 @@
       <c r="Y19" s="37"/>
       <c r="Z19" s="34"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="51"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>65</v>
       </c>
@@ -23916,7 +23909,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="45" t="s">
         <v>86</v>
       </c>
@@ -23927,7 +23920,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="46" t="s">
         <v>87</v>
       </c>
@@ -23938,7 +23931,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="46" t="s">
         <v>88</v>
       </c>
@@ -23949,7 +23942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>89</v>
       </c>
@@ -23960,7 +23953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="50" t="s">
         <v>66</v>
       </c>
@@ -23968,7 +23961,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="50"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>

--- a/dcomtestcasegeneration/Template/Template.xlsx
+++ b/dcomtestcasegeneration/Template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB45024-0068-4527-9F23-CD7213C6BA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D1112-CF3A-45C8-8C9D-FDBDEC59CD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="2355" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="127">
   <si>
     <t>Sub_function</t>
   </si>
@@ -389,6 +389,42 @@
   </si>
   <si>
     <t>Database Directory</t>
+  </si>
+  <si>
+    <t>SAIC</t>
+  </si>
+  <si>
+    <t>AS28</t>
+  </si>
+  <si>
+    <t>R1.0</t>
+  </si>
+  <si>
+    <t>RC01</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
+  </si>
+  <si>
+    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template</t>
+  </si>
+  <si>
+    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template\Template.xlsx</t>
+  </si>
+  <si>
+    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database</t>
+  </si>
+  <si>
+    <t>00320190</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -10764,7 +10800,9 @@
       <c r="A31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
@@ -10772,7 +10810,9 @@
       <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
@@ -10780,7 +10820,9 @@
       <c r="A33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
@@ -10788,7 +10830,9 @@
       <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
@@ -10802,13 +10846,17 @@
       <c r="A41" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
@@ -10826,19 +10874,25 @@
       <c r="A45" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="9" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="102"/>
+      <c r="B46" s="102" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="102"/>
+      <c r="B47" s="102" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -10852,73 +10906,97 @@
       <c r="A51" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="8"/>
+      <c r="B58" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="8"/>
+      <c r="B61" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="8"/>
+      <c r="B62" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -15216,17 +15294,31 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>124</v>
+      </c>
       <c r="E3" s="53"/>
       <c r="F3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="J3" s="54"/>
       <c r="K3" s="17" t="s">
         <v>16</v>
@@ -15276,17 +15368,31 @@
       <c r="Z3" s="56"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="53"/>
+      <c r="A4" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>124</v>
+      </c>
       <c r="E4" s="53"/>
       <c r="F4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" s="54"/>
       <c r="K4" s="57">
         <v>1</v>
@@ -15336,17 +15442,31 @@
       <c r="Z4" s="58"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="53"/>
+      <c r="A5" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>124</v>
+      </c>
       <c r="E5" s="53"/>
       <c r="F5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="J5" s="54"/>
       <c r="K5" s="57">
         <v>2</v>
@@ -15404,9 +15524,15 @@
       <c r="F6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>33</v>
+      </c>
       <c r="J6" s="54"/>
       <c r="K6" s="57">
         <v>3</v>
@@ -15464,9 +15590,15 @@
       <c r="F7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>30</v>
+      </c>
       <c r="J7" s="54"/>
       <c r="K7" s="57">
         <v>4</v>
@@ -16304,17 +16436,31 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="G3" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="J3" s="26"/>
       <c r="K3" s="27" t="s">
         <v>16</v>
@@ -16372,9 +16518,15 @@
       <c r="F4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="J4" s="26"/>
       <c r="K4" s="31">
         <v>1</v>

--- a/dcomtestcasegeneration/Template/Template.xlsx
+++ b/dcomtestcasegeneration/Template/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D1112-CF3A-45C8-8C9D-FDBDEC59CD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D3E7A-F2B8-479C-A231-AB7578AEE615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2925" yWindow="2355" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="125">
   <si>
     <t>Sub_function</t>
   </si>
@@ -419,12 +419,6 @@
   </si>
   <si>
     <t>00320190</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -16299,7 +16293,7 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D3" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16436,31 +16430,17 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>125</v>
-      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="26"/>
       <c r="K3" s="27" t="s">
         <v>16</v>
@@ -16518,15 +16498,9 @@
       <c r="F4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>126</v>
-      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="26"/>
       <c r="K4" s="31">
         <v>1</v>

--- a/dcomtestcasegeneration/Template/Template.xlsx
+++ b/dcomtestcasegeneration/Template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13121F92-F8F1-4921-B7EF-53836B70C0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D984043-28A3-4CE5-B263-9CDF2DBE8D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="2205" windowWidth="12555" windowHeight="12915" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="4020" windowWidth="12555" windowHeight="12915" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="123">
   <si>
     <t>Sub_function</t>
   </si>
@@ -157,16 +157,10 @@
     <t>13</t>
   </si>
   <si>
-    <t>Create_fault</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
   </si>
   <si>
     <t>Comment</t>
@@ -175,43 +169,16 @@
     <t xml:space="preserve">Time_out </t>
   </si>
   <si>
-    <t>Vehicle_Speed</t>
-  </si>
-  <si>
-    <t>Engine_status</t>
-  </si>
-  <si>
-    <t>Power_mode</t>
-  </si>
-  <si>
-    <t>Security_unlock</t>
-  </si>
-  <si>
     <t>Common_Setting</t>
   </si>
   <si>
     <t>Common_Command</t>
   </si>
   <si>
-    <t>1906c1210001</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
     <t>Response</t>
-  </si>
-  <si>
-    <t>1906xxxx</t>
-  </si>
-  <si>
-    <t>Read_dtc_status_active</t>
-  </si>
-  <si>
-    <t>Read_dtc_status_passive</t>
-  </si>
-  <si>
-    <t>Read_dtc_status_noDTC</t>
   </si>
   <si>
     <t>Priority2</t>
@@ -268,28 +235,10 @@
     <t>DID</t>
   </si>
   <si>
-    <t>f186</t>
-  </si>
-  <si>
-    <t>Invalid_counter</t>
-  </si>
-  <si>
-    <t>0103</t>
-  </si>
-  <si>
-    <t>Current_session</t>
-  </si>
-  <si>
     <t>Parameter/DTC</t>
   </si>
   <si>
-    <t>Current_Voltage</t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>0104</t>
   </si>
   <si>
     <t>Information</t>
@@ -358,7 +307,112 @@
     <t>Database Directory</t>
   </si>
   <si>
+    <t>Create_fault</t>
+  </si>
+  <si>
+    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Vehicle_Speed</t>
+  </si>
+  <si>
+    <t>Engine_status</t>
+  </si>
+  <si>
+    <t>Power_mode</t>
+  </si>
+  <si>
+    <t>Security_unlock</t>
+  </si>
+  <si>
+    <t>Read_dtc_status_active</t>
+  </si>
+  <si>
+    <t>1906c1210001</t>
+  </si>
+  <si>
+    <t>1906xxxx12</t>
+  </si>
+  <si>
+    <t>Read_dtc_status_passive</t>
+  </si>
+  <si>
+    <t>1906xxxx12752</t>
+  </si>
+  <si>
+    <t>Read_dtc_status_noDTC</t>
+  </si>
+  <si>
+    <t>190209</t>
+  </si>
+  <si>
+    <t>590209afagdfhd</t>
+  </si>
+  <si>
+    <t>Current_session</t>
+  </si>
+  <si>
+    <t>f186asda</t>
+  </si>
+  <si>
+    <t>Invalid_counter</t>
+  </si>
+  <si>
+    <t>0103adhd</t>
+  </si>
+  <si>
+    <t>Current_Voltage</t>
+  </si>
+  <si>
+    <t>0104afdgh</t>
+  </si>
+  <si>
+    <t>SAIC</t>
+  </si>
+  <si>
+    <t>AS28</t>
+  </si>
+  <si>
+    <t>R1.0</t>
+  </si>
+  <si>
+    <t>RC01</t>
+  </si>
+  <si>
     <t>Local</t>
+  </si>
+  <si>
+    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template</t>
+  </si>
+  <si>
+    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template\Template.xlsx</t>
+  </si>
+  <si>
+    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>00320190</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
 </sst>
 </file>
@@ -10496,8 +10550,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10512,130 +10566,130 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="5">
-        <v>190209</v>
-      </c>
-      <c r="C13" s="5">
-        <v>590209</v>
+        <v>99</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -10646,40 +10700,40 @@
     </row>
     <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -10722,175 +10776,219 @@
     </row>
     <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="102"/>
+        <v>85</v>
+      </c>
+      <c r="B46" s="102" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="102"/>
+        <v>86</v>
+      </c>
+      <c r="B47" s="102" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="8"/>
+      <c r="B51" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="8"/>
+        <v>79</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="8"/>
+        <v>80</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="8"/>
+      <c r="B60" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -10981,11 +11079,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -11001,7 +11099,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -11053,7 +11151,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -11113,7 +11211,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -11126,7 +11224,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -11160,7 +11258,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -11194,10 +11292,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -11230,13 +11328,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -11268,16 +11366,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -11308,19 +11406,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -11350,22 +11448,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -11394,25 +11492,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -11440,28 +11538,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -11488,31 +11586,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -11538,34 +11636,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -11590,37 +11688,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -11644,40 +11742,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -11812,59 +11910,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -11875,13 +11973,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -11980,11 +12078,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="67"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="66" t="s">
         <v>9</v>
@@ -12000,7 +12098,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -12052,7 +12150,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -12112,7 +12210,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -12125,7 +12223,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -12159,7 +12257,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -12193,10 +12291,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -12229,13 +12327,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -12267,16 +12365,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -12307,19 +12405,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -12349,22 +12447,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -12393,25 +12491,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -12439,28 +12537,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -12487,31 +12585,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -12537,34 +12635,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -12589,37 +12687,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -12643,40 +12741,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -12827,59 +12925,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -12890,13 +12988,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -12995,11 +13093,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -13015,7 +13113,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -13067,7 +13165,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -13127,7 +13225,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -13140,7 +13238,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -13174,7 +13272,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -13208,10 +13306,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -13244,13 +13342,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -13282,16 +13380,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -13322,19 +13420,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -13364,22 +13462,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -13408,25 +13506,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -13454,28 +13552,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -13502,31 +13600,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -13552,34 +13650,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -13604,37 +13702,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -13658,40 +13756,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -13833,59 +13931,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -13896,13 +13994,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -14001,11 +14099,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -14021,7 +14119,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -14073,7 +14171,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -14133,7 +14231,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -14146,7 +14244,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -14180,7 +14278,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -14214,10 +14312,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -14250,13 +14348,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -14288,16 +14386,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -14328,19 +14426,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -14370,22 +14468,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -14414,25 +14512,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -14460,28 +14558,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -14508,31 +14606,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -14558,34 +14656,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -14610,37 +14708,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -14664,40 +14762,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -14807,59 +14905,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -14870,13 +14968,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -14915,7 +15013,7 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14990,11 +15088,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -15010,7 +15108,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -15056,17 +15154,31 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>120</v>
+      </c>
       <c r="E3" s="53"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+        <v>54</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="J3" s="54"/>
       <c r="K3" s="17" t="s">
         <v>12</v>
@@ -15116,17 +15228,31 @@
       <c r="Z3" s="56"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="53"/>
+      <c r="A4" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>120</v>
+      </c>
       <c r="E4" s="53"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="J4" s="54"/>
       <c r="K4" s="57">
         <v>1</v>
@@ -15135,58 +15261,72 @@
         <v>15</v>
       </c>
       <c r="M4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="58"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="53"/>
+      <c r="A5" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>120</v>
+      </c>
       <c r="E5" s="53"/>
       <c r="F5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="J5" s="54"/>
       <c r="K5" s="57">
         <v>2</v>
@@ -15195,43 +15335,43 @@
         <v>3</v>
       </c>
       <c r="M5" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z5" s="58"/>
     </row>
@@ -15244,9 +15384,15 @@
       <c r="F6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="G6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="J6" s="54"/>
       <c r="K6" s="57">
         <v>3</v>
@@ -15255,43 +15401,43 @@
         <v>4</v>
       </c>
       <c r="M6" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="2">
         <v>10</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V6" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W6" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X6" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y6" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="58"/>
     </row>
@@ -15304,9 +15450,15 @@
       <c r="F7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="G7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>26</v>
+      </c>
       <c r="J7" s="54"/>
       <c r="K7" s="57">
         <v>4</v>
@@ -15315,43 +15467,43 @@
         <v>16</v>
       </c>
       <c r="M7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2">
         <v>1004</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R7" s="2">
         <v>100400</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U7" s="2">
         <v>1004</v>
       </c>
       <c r="V7" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W7" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X7" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y7" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z7" s="58"/>
     </row>
@@ -15373,43 +15525,43 @@
         <v>17</v>
       </c>
       <c r="M8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W8" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X8" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y8" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="58"/>
     </row>
@@ -15431,25 +15583,25 @@
         <v>5</v>
       </c>
       <c r="M9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="2">
         <v>100100</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T9" s="2">
         <v>100200</v>
@@ -15458,16 +15610,16 @@
         <v>100200</v>
       </c>
       <c r="V9" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W9" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X9" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y9" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="58"/>
     </row>
@@ -15489,43 +15641,43 @@
         <v>18</v>
       </c>
       <c r="M10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W10" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X10" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z10" s="58"/>
     </row>
@@ -15547,25 +15699,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="2">
         <v>1002</v>
@@ -15574,16 +15726,16 @@
         <v>1002</v>
       </c>
       <c r="V11" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W11" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X11" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y11" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z11" s="58"/>
     </row>
@@ -15605,43 +15757,43 @@
         <v>19</v>
       </c>
       <c r="M12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="2">
         <v>1002</v>
       </c>
       <c r="V12" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W12" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X12" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y12" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z12" s="58"/>
     </row>
@@ -15663,43 +15815,43 @@
         <v>20</v>
       </c>
       <c r="M13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W13" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X13" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y13" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z13" s="58"/>
     </row>
@@ -15721,43 +15873,43 @@
         <v>21</v>
       </c>
       <c r="M14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X14" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y14" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z14" s="58"/>
     </row>
@@ -15779,43 +15931,43 @@
         <v>22</v>
       </c>
       <c r="M15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y15" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z15" s="58"/>
     </row>
@@ -15837,43 +15989,43 @@
         <v>37</v>
       </c>
       <c r="M16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="103" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z16" s="58"/>
     </row>
@@ -15910,59 +16062,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -15973,13 +16125,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -16007,7 +16159,7 @@
   <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D4"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16078,11 +16230,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -16098,7 +16250,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -16144,17 +16296,31 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>119</v>
+      </c>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="J3" s="26"/>
       <c r="K3" s="27" t="s">
         <v>12</v>
@@ -16210,11 +16376,17 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="J4" s="26"/>
       <c r="K4" s="31">
         <v>1</v>
@@ -16223,43 +16395,43 @@
         <v>15</v>
       </c>
       <c r="M4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="39">
         <v>0</v>
@@ -16283,43 +16455,43 @@
         <v>3</v>
       </c>
       <c r="M5" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z5" s="39">
         <v>0</v>
@@ -16343,43 +16515,43 @@
         <v>4</v>
       </c>
       <c r="M6" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y6" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="39">
         <v>0</v>
@@ -16403,43 +16575,43 @@
         <v>16</v>
       </c>
       <c r="M7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y7" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z7" s="39">
         <v>0</v>
@@ -16463,43 +16635,43 @@
         <v>17</v>
       </c>
       <c r="M8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y8" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="39">
         <v>0</v>
@@ -16523,43 +16695,43 @@
         <v>5</v>
       </c>
       <c r="M9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y9" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="39">
         <v>0</v>
@@ -16583,43 +16755,43 @@
         <v>18</v>
       </c>
       <c r="M10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z10" s="39">
         <v>0</v>
@@ -16643,43 +16815,43 @@
         <v>6</v>
       </c>
       <c r="M11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y11" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z11" s="39">
         <v>0</v>
@@ -16703,43 +16875,43 @@
         <v>19</v>
       </c>
       <c r="M12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V12" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W12" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X12" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y12" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z12" s="39">
         <v>0</v>
@@ -16763,43 +16935,43 @@
         <v>20</v>
       </c>
       <c r="M13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W13" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X13" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y13" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z13" s="39">
         <v>0</v>
@@ -16823,43 +16995,43 @@
         <v>21</v>
       </c>
       <c r="M14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X14" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y14" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z14" s="39">
         <v>0</v>
@@ -16883,43 +17055,43 @@
         <v>22</v>
       </c>
       <c r="M15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y15" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z15" s="39">
         <v>0</v>
@@ -16943,43 +17115,43 @@
         <v>37</v>
       </c>
       <c r="M16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="104" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="105" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Z16" s="39">
         <v>0</v>
@@ -17020,59 +17192,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -17083,13 +17255,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -17188,11 +17360,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -17208,7 +17380,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -17260,7 +17432,7 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -17320,7 +17492,7 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -17333,7 +17505,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -17367,7 +17539,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -17401,10 +17573,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -17437,13 +17609,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -17475,16 +17647,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -17515,19 +17687,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -17557,22 +17729,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -17601,25 +17773,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -17647,28 +17819,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -17695,31 +17867,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -17745,34 +17917,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -17797,37 +17969,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -17851,40 +18023,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -17922,59 +18094,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -17985,13 +18157,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -18084,17 +18256,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -18110,7 +18282,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -18162,7 +18334,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -18222,7 +18394,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -18235,7 +18407,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -18269,7 +18441,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -18303,10 +18475,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -18339,13 +18511,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -18377,16 +18549,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -18417,19 +18589,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -18459,22 +18631,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -18503,25 +18675,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -18549,28 +18721,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -18597,31 +18769,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -18647,34 +18819,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -18699,37 +18871,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -18753,40 +18925,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -18896,59 +19068,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -18959,13 +19131,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -19055,20 +19227,20 @@
     </row>
     <row r="2" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="77" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C2" s="77" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>9</v>
@@ -19084,7 +19256,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>26</v>
@@ -19136,7 +19308,7 @@
       <c r="D3" s="52"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -19196,7 +19368,7 @@
       <c r="D4" s="52"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -19209,7 +19381,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -19243,7 +19415,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -19277,10 +19449,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -19313,13 +19485,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -19351,16 +19523,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -19391,19 +19563,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -19433,22 +19605,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -19477,25 +19649,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -19523,28 +19695,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -19571,31 +19743,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -19621,34 +19793,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -19673,37 +19845,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -19727,40 +19899,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="81" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -20024,59 +20196,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="85" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="86" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="87" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="86">
         <v>1</v>
       </c>
       <c r="C101" s="76" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="88" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="89">
         <v>1</v>
       </c>
       <c r="C102" s="76" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="88" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="89">
         <v>1</v>
       </c>
       <c r="C103" s="76" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="90" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="91">
         <v>0</v>
       </c>
       <c r="C104" s="76" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="92" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="92"/>
       <c r="C110" s="92"/>
@@ -20087,13 +20259,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="76" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="76" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -20186,17 +20358,17 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -20212,7 +20384,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -20264,7 +20436,7 @@
       <c r="D3" s="52"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -20324,7 +20496,7 @@
       <c r="D4" s="52"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -20337,7 +20509,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -20371,7 +20543,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -20405,10 +20577,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -20441,13 +20613,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -20479,16 +20651,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -20519,19 +20691,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -20561,22 +20733,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -20605,25 +20777,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -20651,28 +20823,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -20699,31 +20871,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -20749,34 +20921,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -20801,37 +20973,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -20855,40 +21027,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -21008,59 +21180,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -21071,13 +21243,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -21176,11 +21348,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -21196,7 +21368,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -21248,7 +21420,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
@@ -21308,7 +21480,7 @@
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -21321,7 +21493,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -21355,7 +21527,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -21389,10 +21561,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -21425,13 +21597,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -21463,16 +21635,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -21503,19 +21675,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -21545,22 +21717,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -21589,25 +21761,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -21635,28 +21807,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -21683,31 +21855,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -21733,34 +21905,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -21785,37 +21957,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -21839,40 +22011,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -21982,59 +22154,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -22045,13 +22217,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -22150,11 +22322,11 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
@@ -22170,7 +22342,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>26</v>
@@ -22222,7 +22394,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -22282,7 +22454,7 @@
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -22295,7 +22467,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
@@ -22329,7 +22501,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
@@ -22363,10 +22535,10 @@
         <v>4</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N6" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
@@ -22399,13 +22571,13 @@
         <v>16</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -22437,16 +22609,16 @@
         <v>17</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="21"/>
@@ -22477,19 +22649,19 @@
         <v>5</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -22519,22 +22691,22 @@
         <v>18</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
@@ -22563,25 +22735,25 @@
         <v>6</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -22609,28 +22781,28 @@
         <v>19</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U12" s="21"/>
       <c r="V12" s="21"/>
@@ -22657,31 +22829,31 @@
         <v>20</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
@@ -22707,34 +22879,34 @@
         <v>21</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W14" s="21"/>
       <c r="X14" s="21"/>
@@ -22759,37 +22931,37 @@
         <v>22</v>
       </c>
       <c r="M15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W15" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
@@ -22813,40 +22985,40 @@
         <v>37</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="V16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="W16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="X16" s="35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="34"/>
@@ -22988,59 +23160,59 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="43" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B101" s="44">
         <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B102" s="47">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="46" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B103" s="47">
         <v>1</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="48" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B104" s="49">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B110" s="50"/>
       <c r="C110" s="50"/>
@@ -23051,13 +23223,13 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/dcomtestcasegeneration/Template/Template.xlsx
+++ b/dcomtestcasegeneration/Template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D984043-28A3-4CE5-B263-9CDF2DBE8D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2F8A5-E4F2-4209-BD14-4C2945ACDFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="4020" windowWidth="12555" windowHeight="12915" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="83">
   <si>
     <t>Sub_function</t>
   </si>
@@ -244,18 +244,6 @@
     <t>Information</t>
   </si>
   <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Variant</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
     <t>DB Source</t>
   </si>
   <si>
@@ -305,114 +293,6 @@
   </si>
   <si>
     <t>Database Directory</t>
-  </si>
-  <si>
-    <t>Create_fault</t>
-  </si>
-  <si>
-    <t>E_pubc_ABSESP_ESP_RAW_0x212_Tm</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Vehicle_Speed</t>
-  </si>
-  <si>
-    <t>Engine_status</t>
-  </si>
-  <si>
-    <t>Power_mode</t>
-  </si>
-  <si>
-    <t>Security_unlock</t>
-  </si>
-  <si>
-    <t>Read_dtc_status_active</t>
-  </si>
-  <si>
-    <t>1906c1210001</t>
-  </si>
-  <si>
-    <t>1906xxxx12</t>
-  </si>
-  <si>
-    <t>Read_dtc_status_passive</t>
-  </si>
-  <si>
-    <t>1906xxxx12752</t>
-  </si>
-  <si>
-    <t>Read_dtc_status_noDTC</t>
-  </si>
-  <si>
-    <t>190209</t>
-  </si>
-  <si>
-    <t>590209afagdfhd</t>
-  </si>
-  <si>
-    <t>Current_session</t>
-  </si>
-  <si>
-    <t>f186asda</t>
-  </si>
-  <si>
-    <t>Invalid_counter</t>
-  </si>
-  <si>
-    <t>0103adhd</t>
-  </si>
-  <si>
-    <t>Current_Voltage</t>
-  </si>
-  <si>
-    <t>0104afdgh</t>
-  </si>
-  <si>
-    <t>SAIC</t>
-  </si>
-  <si>
-    <t>AS28</t>
-  </si>
-  <si>
-    <t>R1.0</t>
-  </si>
-  <si>
-    <t>RC01</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database\DB_SAIC_AS28_R1.0_DCOM.xlsx</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template</t>
-  </si>
-  <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Template\Template.xlsx</t>
-  </si>
-  <si>
-    <t>D:\HuyNA_repo\dcomtestcasegeneration\Database</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>00320190</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
 </sst>
 </file>
@@ -10550,8 +10430,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10578,76 +10458,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>42</v>
@@ -10660,37 +10470,19 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -10709,32 +10501,20 @@
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>107</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
@@ -10776,7 +10556,7 @@
     </row>
     <row r="30" spans="1:4" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>65</v>
@@ -10785,46 +10565,30 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>108</v>
-      </c>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>111</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="40" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>65</v>
@@ -10832,63 +10596,49 @@
     </row>
     <row r="41" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>112</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>113</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>114</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>114</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>115</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="102" t="s">
-        <v>116</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B46" s="102"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="102" t="s">
-        <v>117</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B47" s="102"/>
     </row>
     <row r="50" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>47</v>
@@ -10898,97 +10648,73 @@
       <c r="A51" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B53" s="8"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B55" s="8"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B62" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -15012,8 +14738,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15154,31 +14880,17 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>120</v>
-      </c>
+      <c r="A3" s="53"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="53"/>
       <c r="F3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>29</v>
-      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="54"/>
       <c r="K3" s="17" t="s">
         <v>12</v>
@@ -15228,31 +14940,17 @@
       <c r="Z3" s="56"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>120</v>
-      </c>
+      <c r="A4" s="53"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="53"/>
       <c r="F4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>29</v>
-      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="54"/>
       <c r="K4" s="57">
         <v>1</v>
@@ -15302,31 +15000,17 @@
       <c r="Z4" s="58"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>120</v>
-      </c>
+      <c r="A5" s="53"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>29</v>
-      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="54"/>
       <c r="K5" s="57">
         <v>2</v>
@@ -15384,15 +15068,9 @@
       <c r="F6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>29</v>
-      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="54"/>
       <c r="K6" s="57">
         <v>3</v>
@@ -15450,15 +15128,9 @@
       <c r="F7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>26</v>
-      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="54"/>
       <c r="K7" s="57">
         <v>4</v>
@@ -16094,9 +15766,7 @@
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="47">
-        <v>1</v>
-      </c>
+      <c r="B103" s="47"/>
       <c r="C103" s="2" t="s">
         <v>53</v>
       </c>
@@ -16158,8 +15828,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16296,31 +15966,17 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>119</v>
-      </c>
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="26"/>
       <c r="K3" s="27" t="s">
         <v>12</v>
@@ -16378,15 +16034,9 @@
       <c r="F4" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
       <c r="J4" s="26"/>
       <c r="K4" s="31">
         <v>1</v>
@@ -17224,9 +16874,7 @@
       <c r="A103" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="47">
-        <v>1</v>
-      </c>
+      <c r="B103" s="47"/>
       <c r="C103" s="2" t="s">
         <v>53</v>
       </c>

--- a/dcomtestcasegeneration/Template/Template.xlsx
+++ b/dcomtestcasegeneration/Template/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HuyNA_repo\dcomtestcasegeneration\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2F8A5-E4F2-4209-BD14-4C2945ACDFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183EC32-7ED1-4558-82A8-BD483856F915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="903" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="4020" windowWidth="12555" windowHeight="12915" tabRatio="903" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -10430,7 +10430,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -14738,8 +14738,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15828,7 +15828,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
